--- a/Cutting Stock Model/Input/model_input_25groups_5spec.xlsx
+++ b/Cutting Stock Model/Input/model_input_25groups_5spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/Old Model/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katarinavandepontseele/Documents/Skole/10semester/master2022/Cutting Stock Model/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA50B2A3-1854-0542-A0E6-25B725DA050A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EF7848-4396-FB40-863A-8340875357C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34260" windowHeight="15900" activeTab="3" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -961,9 +961,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
-    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
-    <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
+    <cellStyle name="20 % – uthevingsfarge 4" xfId="1" builtinId="42"/>
+    <cellStyle name="20 % – uthevingsfarge 5" xfId="3" builtinId="46"/>
+    <cellStyle name="20 % – uthevingsfarge 6" xfId="4" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8F977E11-39D4-E04C-8D51-A4F1FE1B59AD}"/>
   </cellStyles>
@@ -981,7 +981,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:BX29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BY24" sqref="BY24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1629,10 +1629,10 @@
         <v>38</v>
       </c>
       <c r="AN2" s="49">
-        <v>244.1</v>
+        <v>64</v>
       </c>
       <c r="AO2" s="49">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AP2" s="61"/>
       <c r="AQ2" s="25" t="s">
@@ -1837,10 +1837,10 @@
         <v>37</v>
       </c>
       <c r="AN3" s="62">
-        <v>335.75</v>
+        <v>272.5</v>
       </c>
       <c r="AO3" s="62">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AP3" s="61"/>
       <c r="AQ3" s="25" t="s">
@@ -1985,10 +1985,10 @@
         <v>111</v>
       </c>
       <c r="AN4" s="62">
-        <v>79.599999999999994</v>
+        <v>348.5</v>
       </c>
       <c r="AO4" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="61"/>
       <c r="AQ4" s="25" t="s">
@@ -2133,10 +2133,10 @@
         <v>108</v>
       </c>
       <c r="AN5" s="62">
-        <v>365.4</v>
+        <v>352</v>
       </c>
       <c r="AO5" s="62">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="61"/>
       <c r="AQ5" s="25" t="s">
@@ -2281,10 +2281,10 @@
         <v>110</v>
       </c>
       <c r="AN6" s="62">
-        <v>368.95</v>
+        <v>208</v>
       </c>
       <c r="AO6" s="62">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AP6" s="61"/>
       <c r="AQ6" s="25" t="s">
@@ -2429,10 +2429,10 @@
         <v>109</v>
       </c>
       <c r="AN7" s="62">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="AO7" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="61"/>
       <c r="AQ7" s="61"/>
@@ -2517,10 +2517,10 @@
         <v>40</v>
       </c>
       <c r="AN8" s="62">
-        <v>242.55</v>
+        <v>67</v>
       </c>
       <c r="AO8" s="62">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AP8" s="61"/>
       <c r="AQ8" s="61"/>
@@ -2605,10 +2605,10 @@
         <v>39</v>
       </c>
       <c r="AN9" s="62">
-        <v>451.9</v>
+        <v>211</v>
       </c>
       <c r="AO9" s="62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP9" s="61"/>
       <c r="AQ9" s="61"/>
@@ -2693,10 +2693,10 @@
         <v>114</v>
       </c>
       <c r="AN10" s="62">
-        <v>131</v>
+        <v>188.5</v>
       </c>
       <c r="AO10" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP10" s="61"/>
       <c r="AQ10" s="61"/>
@@ -2781,10 +2781,10 @@
         <v>113</v>
       </c>
       <c r="AN11" s="62">
-        <v>342.4</v>
+        <v>425</v>
       </c>
       <c r="AO11" s="62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="61"/>
       <c r="AQ11" s="61"/>
@@ -2869,10 +2869,10 @@
         <v>112</v>
       </c>
       <c r="AN12" s="62">
-        <v>203.5</v>
+        <v>235</v>
       </c>
       <c r="AO12" s="62">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AP12" s="61"/>
       <c r="AQ12" s="61"/>
@@ -2957,10 +2957,10 @@
         <v>115</v>
       </c>
       <c r="AN13" s="62">
-        <v>488.7</v>
+        <v>272</v>
       </c>
       <c r="AO13" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="61"/>
       <c r="AQ13" s="61"/>
@@ -3045,10 +3045,10 @@
         <v>35</v>
       </c>
       <c r="AN14" s="62">
-        <v>212.15</v>
+        <v>226</v>
       </c>
       <c r="AO14" s="62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP14" s="61"/>
       <c r="AQ14" s="61"/>
@@ -3133,7 +3133,7 @@
         <v>36</v>
       </c>
       <c r="AN15" s="62">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="AO15" s="62">
         <v>2</v>
@@ -3221,10 +3221,10 @@
         <v>107</v>
       </c>
       <c r="AN16" s="62">
-        <v>108</v>
+        <v>61.5</v>
       </c>
       <c r="AO16" s="62">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AP16" s="61"/>
       <c r="AQ16" s="61"/>
@@ -3309,10 +3309,10 @@
         <v>103</v>
       </c>
       <c r="AN17" s="62">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="AO17" s="62">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AP17" s="61"/>
       <c r="AQ17" s="61"/>
@@ -3397,10 +3397,10 @@
         <v>104</v>
       </c>
       <c r="AN18" s="62">
-        <v>238.15</v>
+        <v>106</v>
       </c>
       <c r="AO18" s="62">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AP18" s="61"/>
       <c r="AQ18" s="61"/>
@@ -3485,10 +3485,10 @@
         <v>106</v>
       </c>
       <c r="AN19" s="62">
-        <v>326.5</v>
+        <v>305</v>
       </c>
       <c r="AO19" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19" s="61"/>
       <c r="AQ19" s="61"/>
@@ -3573,10 +3573,10 @@
         <v>105</v>
       </c>
       <c r="AN20" s="62">
-        <v>226</v>
+        <v>52.5</v>
       </c>
       <c r="AO20" s="62">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AP20" s="61"/>
       <c r="AQ20" s="61"/>
@@ -3661,10 +3661,10 @@
         <v>34</v>
       </c>
       <c r="AN21" s="62">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="AO21" s="62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP21" s="61"/>
       <c r="AQ21" s="61"/>
@@ -3749,10 +3749,10 @@
         <v>42</v>
       </c>
       <c r="AN22" s="62">
-        <v>221.05</v>
+        <v>142</v>
       </c>
       <c r="AO22" s="62">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AP22" s="61"/>
       <c r="AQ22" s="61"/>
@@ -3837,10 +3837,10 @@
         <v>41</v>
       </c>
       <c r="AN23" s="62">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AO23" s="62">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AP23" s="61"/>
       <c r="AQ23" s="61"/>
@@ -3925,10 +3925,10 @@
         <v>118</v>
       </c>
       <c r="AN24" s="62">
-        <v>191.2</v>
+        <v>86</v>
       </c>
       <c r="AO24" s="62">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AP24" s="61"/>
       <c r="AQ24" s="61"/>
@@ -4013,10 +4013,10 @@
         <v>117</v>
       </c>
       <c r="AN25" s="62">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="AO25" s="62">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="61"/>
       <c r="AQ25" s="61"/>
@@ -4101,10 +4101,10 @@
         <v>116</v>
       </c>
       <c r="AN26" s="50">
-        <v>116</v>
+        <v>225.5</v>
       </c>
       <c r="AO26" s="50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP26" s="61"/>
       <c r="AQ26" s="61"/>
@@ -5347,7 +5347,7 @@
   <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5422,64 +5422,64 @@
         <v>38</v>
       </c>
       <c r="B2" s="52">
-        <v>0.96202531645569622</v>
+        <v>0.28307692307692306</v>
       </c>
       <c r="C2" s="53">
-        <v>0.91772151898734178</v>
+        <v>0.12923076923076923</v>
       </c>
       <c r="D2" s="53">
-        <v>0.88607594936708856</v>
+        <v>6.7692307692307691E-2</v>
       </c>
       <c r="E2" s="53">
-        <v>0.86075949367088611</v>
+        <v>2.4615384615384615E-2</v>
       </c>
       <c r="F2" s="53">
-        <v>0.71518987341772156</v>
+        <v>9.2307692307692316E-3</v>
       </c>
       <c r="G2" s="53">
-        <v>0.60759493670886078</v>
+        <v>6.1538461538461538E-3</v>
       </c>
       <c r="H2" s="53">
-        <v>0.46202531645569622</v>
+        <v>3.0769230769230769E-3</v>
       </c>
       <c r="I2" s="53">
-        <v>0.36075949367088606</v>
+        <v>3.0769230769230769E-3</v>
       </c>
       <c r="J2" s="53">
-        <v>0.30379746835443039</v>
+        <v>0</v>
       </c>
       <c r="K2" s="53">
-        <v>0.25316455696202533</v>
+        <v>0</v>
       </c>
       <c r="L2" s="53">
-        <v>0.18354430379746836</v>
+        <v>0</v>
       </c>
       <c r="M2" s="53">
-        <v>0.15189873417721519</v>
+        <v>0</v>
       </c>
       <c r="N2" s="53">
-        <v>0.11392405063291139</v>
+        <v>0</v>
       </c>
       <c r="O2" s="53">
-        <v>5.6962025316455694E-2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="53">
-        <v>3.7974683544303799E-2</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="53">
-        <v>1.8987341772151899E-2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="53">
-        <v>1.8987341772151899E-2</v>
+        <v>0</v>
       </c>
       <c r="S2" s="53">
-        <v>1.8987341772151899E-2</v>
+        <v>0</v>
       </c>
       <c r="T2" s="53">
-        <v>1.8987341772151899E-2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="54">
-        <v>6.3291139240506328E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -5487,61 +5487,61 @@
         <v>37</v>
       </c>
       <c r="B3" s="55">
-        <v>0.60869565217391308</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="C3" s="56">
-        <v>0.52173913043478259</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="D3" s="56">
-        <v>0.19565217391304349</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="E3" s="56">
-        <v>0.13043478260869565</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="F3" s="56">
-        <v>0.13043478260869565</v>
+        <v>0.8125</v>
       </c>
       <c r="G3" s="56">
-        <v>6.5217391304347824E-2</v>
+        <v>0.6875</v>
       </c>
       <c r="H3" s="56">
-        <v>4.3478260869565216E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I3" s="56">
-        <v>2.1739130434782608E-2</v>
+        <v>0.4</v>
       </c>
       <c r="J3" s="56">
-        <v>2.1739130434782608E-2</v>
+        <v>0.25</v>
       </c>
       <c r="K3" s="56">
-        <v>2.1739130434782608E-2</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="L3" s="56">
-        <v>2.1739130434782608E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M3" s="56">
-        <v>2.1739130434782608E-2</v>
+        <v>0.1125</v>
       </c>
       <c r="N3" s="56">
-        <v>2.1739130434782608E-2</v>
+        <v>0.1125</v>
       </c>
       <c r="O3" s="56">
-        <v>0</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="P3" s="56">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q3" s="56">
-        <v>0</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="R3" s="56">
-        <v>0</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="S3" s="56">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="T3" s="56">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="U3" s="57">
         <v>0</v>
@@ -5552,28 +5552,28 @@
         <v>111</v>
       </c>
       <c r="B4" s="55">
-        <v>0.29129129129129128</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="C4" s="56">
-        <v>0.13513513513513514</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="56">
-        <v>7.5075075075075076E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E4" s="56">
-        <v>3.903903903903904E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="F4" s="56">
-        <v>1.5015015015015015E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G4" s="56">
-        <v>1.2012012012012012E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="H4" s="56">
-        <v>3.003003003003003E-3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="56">
-        <v>3.003003003003003E-3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="56">
         <v>0</v>
@@ -5617,61 +5617,61 @@
         <v>108</v>
       </c>
       <c r="B5" s="55">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="C5" s="56">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="D5" s="56">
-        <v>0.91111111111111109</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="E5" s="56">
-        <v>0.88888888888888884</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="F5" s="56">
-        <v>0.8666666666666667</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="G5" s="56">
-        <v>0.77777777777777779</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="H5" s="56">
-        <v>0.68888888888888888</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="I5" s="56">
-        <v>0.51111111111111107</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="J5" s="56">
-        <v>0.37777777777777777</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="K5" s="56">
-        <v>0.28888888888888886</v>
+        <v>0.79411764705882348</v>
       </c>
       <c r="L5" s="56">
-        <v>0.2</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="M5" s="56">
-        <v>0.17777777777777778</v>
+        <v>0.61764705882352944</v>
       </c>
       <c r="N5" s="56">
-        <v>0.13333333333333333</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="O5" s="56">
-        <v>8.8888888888888892E-2</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="P5" s="56">
-        <v>4.4444444444444446E-2</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="Q5" s="56">
-        <v>4.4444444444444446E-2</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="R5" s="56">
-        <v>4.4444444444444446E-2</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="S5" s="56">
-        <v>2.2222222222222223E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="T5" s="56">
-        <v>2.2222222222222223E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="U5" s="57">
         <v>0</v>
@@ -5682,64 +5682,64 @@
         <v>110</v>
       </c>
       <c r="B6" s="55">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C6" s="56">
-        <v>1</v>
+        <v>0.87244897959183676</v>
       </c>
       <c r="D6" s="56">
-        <v>1</v>
+        <v>0.82653061224489799</v>
       </c>
       <c r="E6" s="56">
-        <v>1</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="F6" s="56">
-        <v>0.9838709677419355</v>
+        <v>0.66326530612244894</v>
       </c>
       <c r="G6" s="56">
-        <v>0.95161290322580649</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H6" s="56">
-        <v>0.83870967741935487</v>
+        <v>0.37755102040816324</v>
       </c>
       <c r="I6" s="56">
-        <v>0.66129032258064513</v>
+        <v>0.25</v>
       </c>
       <c r="J6" s="56">
-        <v>0.4838709677419355</v>
+        <v>0.17346938775510204</v>
       </c>
       <c r="K6" s="56">
-        <v>0.41935483870967744</v>
+        <v>0.12755102040816327</v>
       </c>
       <c r="L6" s="56">
-        <v>0.32258064516129031</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M6" s="56">
-        <v>0.29032258064516131</v>
+        <v>6.1224489795918366E-2</v>
       </c>
       <c r="N6" s="56">
-        <v>0.20967741935483872</v>
+        <v>5.1020408163265307E-2</v>
       </c>
       <c r="O6" s="56">
-        <v>0.14516129032258066</v>
+        <v>1.5306122448979591E-2</v>
       </c>
       <c r="P6" s="56">
-        <v>0.12903225806451613</v>
+        <v>1.5306122448979591E-2</v>
       </c>
       <c r="Q6" s="56">
-        <v>8.0645161290322578E-2</v>
+        <v>1.5306122448979591E-2</v>
       </c>
       <c r="R6" s="56">
-        <v>6.4516129032258063E-2</v>
+        <v>1.5306122448979591E-2</v>
       </c>
       <c r="S6" s="56">
-        <v>3.2258064516129031E-2</v>
+        <v>1.5306122448979591E-2</v>
       </c>
       <c r="T6" s="56">
-        <v>0</v>
+        <v>1.020408163265306E-2</v>
       </c>
       <c r="U6" s="57">
-        <v>0</v>
+        <v>5.1020408163265302E-3</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -5759,49 +5759,49 @@
         <v>1</v>
       </c>
       <c r="F7" s="56">
-        <v>0.81818181818181823</v>
+        <v>1</v>
       </c>
       <c r="G7" s="56">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="H7" s="56">
-        <v>0.5757575757575758</v>
+        <v>1</v>
       </c>
       <c r="I7" s="56">
-        <v>0.45454545454545453</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="J7" s="56">
-        <v>0.30303030303030304</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="K7" s="56">
-        <v>0.24242424242424243</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="L7" s="56">
-        <v>0.19696969696969696</v>
+        <v>0.55813953488372092</v>
       </c>
       <c r="M7" s="56">
-        <v>0.16666666666666666</v>
+        <v>0.46511627906976744</v>
       </c>
       <c r="N7" s="56">
-        <v>0.15151515151515152</v>
+        <v>0.34883720930232559</v>
       </c>
       <c r="O7" s="56">
-        <v>0.12121212121212122</v>
+        <v>0.20930232558139536</v>
       </c>
       <c r="P7" s="56">
-        <v>7.575757575757576E-2</v>
+        <v>0.18604651162790697</v>
       </c>
       <c r="Q7" s="56">
-        <v>7.575757575757576E-2</v>
+        <v>0.13953488372093023</v>
       </c>
       <c r="R7" s="56">
-        <v>6.0606060606060608E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="S7" s="56">
-        <v>4.5454545454545456E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="T7" s="56">
-        <v>4.5454545454545456E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="U7" s="57">
         <v>0</v>
@@ -5812,55 +5812,55 @@
         <v>40</v>
       </c>
       <c r="B8" s="55">
-        <v>0.96666666666666667</v>
+        <v>0.34239130434782611</v>
       </c>
       <c r="C8" s="56">
-        <v>0.96666666666666667</v>
+        <v>0.19565217391304349</v>
       </c>
       <c r="D8" s="56">
-        <v>0.93333333333333335</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="E8" s="56">
-        <v>0.93333333333333335</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="F8" s="56">
-        <v>0.76666666666666672</v>
+        <v>4.8913043478260872E-2</v>
       </c>
       <c r="G8" s="56">
-        <v>0.6333333333333333</v>
+        <v>4.8913043478260872E-2</v>
       </c>
       <c r="H8" s="56">
-        <v>0.53333333333333333</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="I8" s="56">
-        <v>0.4</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="J8" s="56">
-        <v>0.26666666666666666</v>
+        <v>3.8043478260869568E-2</v>
       </c>
       <c r="K8" s="56">
-        <v>0.23333333333333334</v>
+        <v>2.717391304347826E-2</v>
       </c>
       <c r="L8" s="56">
-        <v>0.16666666666666666</v>
+        <v>2.717391304347826E-2</v>
       </c>
       <c r="M8" s="56">
-        <v>0.13333333333333333</v>
+        <v>2.717391304347826E-2</v>
       </c>
       <c r="N8" s="56">
-        <v>6.6666666666666666E-2</v>
+        <v>2.717391304347826E-2</v>
       </c>
       <c r="O8" s="56">
-        <v>3.3333333333333333E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="P8" s="56">
-        <v>3.3333333333333333E-2</v>
+        <v>1.6304347826086956E-2</v>
       </c>
       <c r="Q8" s="56">
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="56">
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="56">
         <v>0</v>
@@ -5877,61 +5877,61 @@
         <v>39</v>
       </c>
       <c r="B9" s="55">
-        <v>0.86363636363636365</v>
+        <v>0.90598290598290598</v>
       </c>
       <c r="C9" s="56">
-        <v>0.86363636363636365</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="D9" s="56">
-        <v>0.61363636363636365</v>
+        <v>0.67521367521367526</v>
       </c>
       <c r="E9" s="56">
-        <v>0.61363636363636365</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="F9" s="56">
-        <v>0.61363636363636365</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G9" s="56">
-        <v>0.61363636363636365</v>
+        <v>0.47863247863247865</v>
       </c>
       <c r="H9" s="56">
-        <v>0.54545454545454541</v>
+        <v>0.37606837606837606</v>
       </c>
       <c r="I9" s="56">
-        <v>0.5</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="J9" s="56">
-        <v>0.43181818181818182</v>
+        <v>0.24786324786324787</v>
       </c>
       <c r="K9" s="56">
-        <v>0.31818181818181818</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="L9" s="56">
-        <v>0.22727272727272727</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="M9" s="56">
-        <v>0.18181818181818182</v>
+        <v>5.9829059829059832E-2</v>
       </c>
       <c r="N9" s="56">
-        <v>0.13636363636363635</v>
+        <v>4.2735042735042736E-2</v>
       </c>
       <c r="O9" s="56">
-        <v>0.13636363636363635</v>
+        <v>4.2735042735042736E-2</v>
       </c>
       <c r="P9" s="56">
-        <v>0.11363636363636363</v>
+        <v>4.2735042735042736E-2</v>
       </c>
       <c r="Q9" s="56">
-        <v>0.11363636363636363</v>
+        <v>4.2735042735042736E-2</v>
       </c>
       <c r="R9" s="56">
-        <v>9.0909090909090912E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="S9" s="56">
-        <v>9.0909090909090912E-2</v>
+        <v>1.7094017094017096E-2</v>
       </c>
       <c r="T9" s="56">
-        <v>2.2727272727272728E-2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="57">
         <v>0</v>
@@ -5942,49 +5942,49 @@
         <v>114</v>
       </c>
       <c r="B10" s="55">
-        <v>0.41549295774647887</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="C10" s="56">
-        <v>0.26760563380281688</v>
+        <v>0.37209302325581395</v>
       </c>
       <c r="D10" s="56">
-        <v>0.14084507042253522</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="E10" s="56">
-        <v>7.0422535211267609E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="F10" s="56">
-        <v>4.9295774647887321E-2</v>
+        <v>3.4883720930232558E-2</v>
       </c>
       <c r="G10" s="56">
-        <v>4.5774647887323945E-2</v>
+        <v>3.4883720930232558E-2</v>
       </c>
       <c r="H10" s="56">
-        <v>3.5211267605633804E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="I10" s="56">
-        <v>3.1690140845070422E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
       <c r="J10" s="56">
-        <v>2.8169014084507043E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
       <c r="K10" s="56">
-        <v>2.1126760563380281E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
       <c r="L10" s="56">
-        <v>2.1126760563380281E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
       <c r="M10" s="56">
-        <v>2.1126760563380281E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
       <c r="N10" s="56">
-        <v>2.1126760563380281E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
       <c r="O10" s="56">
-        <v>1.7605633802816902E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
       <c r="P10" s="56">
-        <v>1.4084507042253521E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
       <c r="Q10" s="56">
         <v>0</v>
@@ -6007,64 +6007,64 @@
         <v>113</v>
       </c>
       <c r="B11" s="55">
-        <v>1</v>
+        <v>0.40625</v>
       </c>
       <c r="C11" s="56">
-        <v>1</v>
+        <v>0.34375</v>
       </c>
       <c r="D11" s="56">
-        <v>1</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E11" s="56">
-        <v>1</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F11" s="56">
-        <v>0.94736842105263153</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G11" s="56">
-        <v>0.89473684210526316</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H11" s="56">
-        <v>0.78947368421052633</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I11" s="56">
-        <v>0.63157894736842102</v>
+        <v>3.125E-2</v>
       </c>
       <c r="J11" s="56">
-        <v>0.44736842105263158</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K11" s="56">
-        <v>0.36842105263157893</v>
+        <v>3.125E-2</v>
       </c>
       <c r="L11" s="56">
-        <v>0.31578947368421051</v>
+        <v>3.125E-2</v>
       </c>
       <c r="M11" s="56">
-        <v>0.31578947368421051</v>
+        <v>3.125E-2</v>
       </c>
       <c r="N11" s="56">
-        <v>0.28947368421052633</v>
+        <v>3.125E-2</v>
       </c>
       <c r="O11" s="56">
-        <v>0.28947368421052633</v>
+        <v>3.125E-2</v>
       </c>
       <c r="P11" s="56">
-        <v>0.23684210526315788</v>
+        <v>3.125E-2</v>
       </c>
       <c r="Q11" s="56">
-        <v>0.15789473684210525</v>
+        <v>3.125E-2</v>
       </c>
       <c r="R11" s="56">
-        <v>0.15789473684210525</v>
+        <v>3.125E-2</v>
       </c>
       <c r="S11" s="56">
-        <v>0.10526315789473684</v>
+        <v>3.125E-2</v>
       </c>
       <c r="T11" s="56">
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="57">
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -6072,61 +6072,61 @@
         <v>112</v>
       </c>
       <c r="B12" s="55">
-        <v>0.94186046511627908</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="C12" s="56">
-        <v>0.86046511627906974</v>
+        <v>0.93877551020408168</v>
       </c>
       <c r="D12" s="56">
-        <v>0.73255813953488369</v>
+        <v>0.87755102040816324</v>
       </c>
       <c r="E12" s="56">
-        <v>0.65116279069767447</v>
+        <v>0.87755102040816324</v>
       </c>
       <c r="F12" s="56">
-        <v>0.58139534883720934</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G12" s="56">
-        <v>0.51162790697674421</v>
+        <v>0.77551020408163263</v>
       </c>
       <c r="H12" s="56">
-        <v>0.43023255813953487</v>
+        <v>0.73469387755102045</v>
       </c>
       <c r="I12" s="56">
-        <v>0.39534883720930231</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J12" s="56">
-        <v>0.27906976744186046</v>
+        <v>0.44897959183673469</v>
       </c>
       <c r="K12" s="56">
-        <v>0.18604651162790697</v>
+        <v>0.36734693877551022</v>
       </c>
       <c r="L12" s="56">
-        <v>0.15116279069767441</v>
+        <v>0.34693877551020408</v>
       </c>
       <c r="M12" s="56">
-        <v>0.10465116279069768</v>
+        <v>0.32653061224489793</v>
       </c>
       <c r="N12" s="56">
-        <v>0.10465116279069768</v>
+        <v>0.32653061224489793</v>
       </c>
       <c r="O12" s="56">
-        <v>0.10465116279069768</v>
+        <v>0.32653061224489793</v>
       </c>
       <c r="P12" s="56">
-        <v>5.8139534883720929E-2</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="Q12" s="56">
-        <v>4.6511627906976744E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="R12" s="56">
-        <v>2.3255813953488372E-2</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="S12" s="56">
-        <v>1.1627906976744186E-2</v>
+        <v>8.1632653061224483E-2</v>
       </c>
       <c r="T12" s="56">
-        <v>1.1627906976744186E-2</v>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="U12" s="57">
         <v>0</v>
@@ -6137,64 +6137,64 @@
         <v>115</v>
       </c>
       <c r="B13" s="55">
-        <v>0.37037037037037035</v>
+        <v>1</v>
       </c>
       <c r="C13" s="56">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D13" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="56">
-        <v>0</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="G13" s="56">
-        <v>0</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="H13" s="56">
-        <v>0</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="I13" s="56">
-        <v>0</v>
+        <v>0.59459459459459463</v>
       </c>
       <c r="J13" s="56">
-        <v>0</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="K13" s="56">
-        <v>0</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="L13" s="56">
-        <v>0</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="M13" s="56">
-        <v>0</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="N13" s="56">
-        <v>0</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="O13" s="56">
-        <v>0</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="P13" s="56">
-        <v>0</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="Q13" s="56">
-        <v>0</v>
+        <v>8.1081081081081086E-2</v>
       </c>
       <c r="R13" s="56">
-        <v>0</v>
+        <v>8.1081081081081086E-2</v>
       </c>
       <c r="S13" s="56">
-        <v>0</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="T13" s="56">
-        <v>0</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="U13" s="57">
-        <v>0</v>
+        <v>5.4054054054054057E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -6202,61 +6202,61 @@
         <v>35</v>
       </c>
       <c r="B14" s="55">
-        <v>0.94270833333333337</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C14" s="56">
-        <v>0.88020833333333337</v>
+        <v>0.6</v>
       </c>
       <c r="D14" s="56">
-        <v>0.73958333333333337</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="E14" s="56">
-        <v>0.640625</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="F14" s="56">
-        <v>0.44270833333333331</v>
+        <v>4.2857142857142858E-2</v>
       </c>
       <c r="G14" s="56">
-        <v>0.29166666666666669</v>
+        <v>0</v>
       </c>
       <c r="H14" s="56">
-        <v>0.203125</v>
+        <v>0</v>
       </c>
       <c r="I14" s="56">
-        <v>0.13541666666666666</v>
+        <v>0</v>
       </c>
       <c r="J14" s="56">
-        <v>9.8958333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="56">
-        <v>7.2916666666666671E-2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="56">
-        <v>6.7708333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="56">
-        <v>5.2083333333333336E-2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="56">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="56">
-        <v>1.5625E-2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="56">
-        <v>1.5625E-2</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="56">
-        <v>1.0416666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="56">
-        <v>1.0416666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="56">
-        <v>1.0416666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="56">
-        <v>5.208333333333333E-3</v>
+        <v>0</v>
       </c>
       <c r="U14" s="57">
         <v>0</v>
@@ -6267,64 +6267,64 @@
         <v>36</v>
       </c>
       <c r="B15" s="55">
-        <v>0.8515625</v>
+        <v>1</v>
       </c>
       <c r="C15" s="56">
-        <v>0.57421875</v>
+        <v>1</v>
       </c>
       <c r="D15" s="56">
-        <v>0.310546875</v>
+        <v>1</v>
       </c>
       <c r="E15" s="56">
-        <v>0.197265625</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="F15" s="56">
-        <v>0.142578125</v>
+        <v>0.76086956521739135</v>
       </c>
       <c r="G15" s="56">
-        <v>0.103515625</v>
+        <v>0.58695652173913049</v>
       </c>
       <c r="H15" s="56">
-        <v>7.2265625E-2</v>
+        <v>0.45652173913043476</v>
       </c>
       <c r="I15" s="56">
-        <v>6.0546875E-2</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="J15" s="56">
-        <v>5.078125E-2</v>
+        <v>0.19565217391304349</v>
       </c>
       <c r="K15" s="56">
-        <v>4.1015625E-2</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="L15" s="56">
-        <v>3.125E-2</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="M15" s="56">
-        <v>2.734375E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="N15" s="56">
-        <v>2.1484375E-2</v>
+        <v>0</v>
       </c>
       <c r="O15" s="56">
-        <v>1.5625E-2</v>
+        <v>0</v>
       </c>
       <c r="P15" s="56">
-        <v>1.171875E-2</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="56">
-        <v>1.171875E-2</v>
+        <v>0</v>
       </c>
       <c r="R15" s="56">
-        <v>1.171875E-2</v>
+        <v>0</v>
       </c>
       <c r="S15" s="56">
-        <v>5.859375E-3</v>
+        <v>0</v>
       </c>
       <c r="T15" s="56">
-        <v>5.859375E-3</v>
+        <v>0</v>
       </c>
       <c r="U15" s="57">
-        <v>1.953125E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -6332,34 +6332,34 @@
         <v>107</v>
       </c>
       <c r="B16" s="55">
-        <v>0.6480836236933798</v>
+        <v>0.13358778625954199</v>
       </c>
       <c r="C16" s="56">
-        <v>0.19860627177700349</v>
+        <v>3.8167938931297711E-2</v>
       </c>
       <c r="D16" s="56">
-        <v>3.8327526132404179E-2</v>
+        <v>1.9083969465648856E-2</v>
       </c>
       <c r="E16" s="56">
-        <v>1.3937282229965157E-2</v>
+        <v>9.5419847328244278E-3</v>
       </c>
       <c r="F16" s="56">
-        <v>1.0452961672473868E-2</v>
+        <v>3.8167938931297708E-3</v>
       </c>
       <c r="G16" s="56">
-        <v>6.9686411149825784E-3</v>
+        <v>3.8167938931297708E-3</v>
       </c>
       <c r="H16" s="56">
-        <v>3.4843205574912892E-3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="56">
-        <v>3.4843205574912892E-3</v>
+        <v>0</v>
       </c>
       <c r="J16" s="56">
-        <v>3.4843205574912892E-3</v>
+        <v>0</v>
       </c>
       <c r="K16" s="56">
-        <v>3.4843205574912892E-3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="56">
         <v>0</v>
@@ -6397,49 +6397,49 @@
         <v>103</v>
       </c>
       <c r="B17" s="55">
-        <v>3.8659793814432991E-2</v>
+        <v>0.98095238095238091</v>
       </c>
       <c r="C17" s="56">
-        <v>7.7319587628865982E-3</v>
+        <v>0.96190476190476193</v>
       </c>
       <c r="D17" s="56">
-        <v>0</v>
+        <v>0.84761904761904761</v>
       </c>
       <c r="E17" s="56">
-        <v>0</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="F17" s="56">
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G17" s="56">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H17" s="56">
-        <v>0</v>
+        <v>0.20952380952380953</v>
       </c>
       <c r="I17" s="56">
-        <v>0</v>
+        <v>0.12380952380952381</v>
       </c>
       <c r="J17" s="56">
-        <v>0</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="K17" s="56">
-        <v>0</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="L17" s="56">
-        <v>0</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="M17" s="56">
-        <v>0</v>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="N17" s="56">
-        <v>0</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="O17" s="56">
-        <v>0</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="P17" s="56">
-        <v>0</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="Q17" s="56">
         <v>0</v>
@@ -6462,61 +6462,61 @@
         <v>104</v>
       </c>
       <c r="B18" s="55">
-        <v>1</v>
+        <v>0.88777555110220441</v>
       </c>
       <c r="C18" s="56">
-        <v>1</v>
+        <v>0.49498997995991983</v>
       </c>
       <c r="D18" s="56">
-        <v>1</v>
+        <v>0.18036072144288579</v>
       </c>
       <c r="E18" s="56">
-        <v>1</v>
+        <v>6.6132264529058113E-2</v>
       </c>
       <c r="F18" s="56">
-        <v>0.8529411764705882</v>
+        <v>4.4088176352705413E-2</v>
       </c>
       <c r="G18" s="56">
-        <v>0.6470588235294118</v>
+        <v>2.4048096192384769E-2</v>
       </c>
       <c r="H18" s="56">
-        <v>0.52941176470588236</v>
+        <v>2.004008016032064E-2</v>
       </c>
       <c r="I18" s="56">
-        <v>0.26470588235294118</v>
+        <v>1.8036072144288578E-2</v>
       </c>
       <c r="J18" s="56">
-        <v>0.20588235294117646</v>
+        <v>1.8036072144288578E-2</v>
       </c>
       <c r="K18" s="56">
-        <v>0.11764705882352941</v>
+        <v>1.2024048096192385E-2</v>
       </c>
       <c r="L18" s="56">
-        <v>0.11764705882352941</v>
+        <v>1.002004008016032E-2</v>
       </c>
       <c r="M18" s="56">
-        <v>8.8235294117647065E-2</v>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="N18" s="56">
-        <v>5.8823529411764705E-2</v>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="O18" s="56">
-        <v>5.8823529411764705E-2</v>
+        <v>6.0120240480961923E-3</v>
       </c>
       <c r="P18" s="56">
-        <v>2.9411764705882353E-2</v>
+        <v>2.004008016032064E-3</v>
       </c>
       <c r="Q18" s="56">
-        <v>2.9411764705882353E-2</v>
+        <v>2.004008016032064E-3</v>
       </c>
       <c r="R18" s="56">
-        <v>0</v>
+        <v>2.004008016032064E-3</v>
       </c>
       <c r="S18" s="56">
-        <v>0</v>
+        <v>2.004008016032064E-3</v>
       </c>
       <c r="T18" s="56">
-        <v>0</v>
+        <v>2.004008016032064E-3</v>
       </c>
       <c r="U18" s="57">
         <v>0</v>
@@ -6533,55 +6533,55 @@
         <v>1</v>
       </c>
       <c r="D19" s="56">
-        <v>0.94444444444444442</v>
+        <v>0.95121951219512191</v>
       </c>
       <c r="E19" s="56">
-        <v>0.94444444444444442</v>
+        <v>0.95121951219512191</v>
       </c>
       <c r="F19" s="56">
-        <v>0.94444444444444442</v>
+        <v>0.95121951219512191</v>
       </c>
       <c r="G19" s="56">
-        <v>0.88888888888888884</v>
+        <v>0.95121951219512191</v>
       </c>
       <c r="H19" s="56">
-        <v>0.88888888888888884</v>
+        <v>0.95121951219512191</v>
       </c>
       <c r="I19" s="56">
-        <v>0.83333333333333337</v>
+        <v>0.90243902439024393</v>
       </c>
       <c r="J19" s="56">
-        <v>0.63888888888888884</v>
+        <v>0.75609756097560976</v>
       </c>
       <c r="K19" s="56">
-        <v>0.3888888888888889</v>
+        <v>0.56097560975609762</v>
       </c>
       <c r="L19" s="56">
-        <v>0.30555555555555558</v>
+        <v>0.43902439024390244</v>
       </c>
       <c r="M19" s="56">
-        <v>0.22222222222222221</v>
+        <v>0.31707317073170732</v>
       </c>
       <c r="N19" s="56">
-        <v>0.16666666666666666</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="O19" s="56">
-        <v>0.1388888888888889</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="P19" s="56">
-        <v>8.3333333333333329E-2</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="Q19" s="56">
-        <v>5.5555555555555552E-2</v>
+        <v>7.3170731707317069E-2</v>
       </c>
       <c r="R19" s="56">
-        <v>5.5555555555555552E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="S19" s="56">
-        <v>5.5555555555555552E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="T19" s="56">
-        <v>2.7777777777777776E-2</v>
+        <v>0</v>
       </c>
       <c r="U19" s="57">
         <v>0</v>
@@ -6592,64 +6592,64 @@
         <v>105</v>
       </c>
       <c r="B20" s="55">
-        <v>0.67777777777777781</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="C20" s="56">
-        <v>0.51111111111111107</v>
+        <v>0.55769230769230771</v>
       </c>
       <c r="D20" s="56">
-        <v>0.23333333333333334</v>
+        <v>0.41538461538461541</v>
       </c>
       <c r="E20" s="56">
-        <v>1.1111111111111112E-2</v>
+        <v>0.3576923076923077</v>
       </c>
       <c r="F20" s="56">
-        <v>0</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="G20" s="56">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H20" s="56">
-        <v>0</v>
+        <v>0.1423076923076923</v>
       </c>
       <c r="I20" s="56">
-        <v>0</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="J20" s="56">
-        <v>0</v>
+        <v>8.8461538461538466E-2</v>
       </c>
       <c r="K20" s="56">
-        <v>0</v>
+        <v>8.0769230769230774E-2</v>
       </c>
       <c r="L20" s="56">
-        <v>0</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="M20" s="56">
-        <v>0</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="N20" s="56">
-        <v>0</v>
+        <v>4.230769230769231E-2</v>
       </c>
       <c r="O20" s="56">
-        <v>0</v>
+        <v>2.6923076923076925E-2</v>
       </c>
       <c r="P20" s="56">
-        <v>0</v>
+        <v>2.6923076923076925E-2</v>
       </c>
       <c r="Q20" s="56">
-        <v>0</v>
+        <v>2.6923076923076925E-2</v>
       </c>
       <c r="R20" s="56">
-        <v>0</v>
+        <v>2.6923076923076925E-2</v>
       </c>
       <c r="S20" s="56">
-        <v>0</v>
+        <v>1.5384615384615385E-2</v>
       </c>
       <c r="T20" s="56">
-        <v>0</v>
+        <v>1.5384615384615385E-2</v>
       </c>
       <c r="U20" s="57">
-        <v>0</v>
+        <v>3.8461538461538464E-3</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
@@ -6722,43 +6722,43 @@
         <v>42</v>
       </c>
       <c r="B22" s="55">
-        <v>0</v>
+        <v>0.905829596412556</v>
       </c>
       <c r="C22" s="56">
-        <v>0</v>
+        <v>0.50672645739910316</v>
       </c>
       <c r="D22" s="56">
-        <v>0</v>
+        <v>0.19730941704035873</v>
       </c>
       <c r="E22" s="56">
-        <v>0</v>
+        <v>8.0717488789237665E-2</v>
       </c>
       <c r="F22" s="56">
-        <v>0</v>
+        <v>2.6905829596412557E-2</v>
       </c>
       <c r="G22" s="56">
-        <v>0</v>
+        <v>2.2421524663677129E-2</v>
       </c>
       <c r="H22" s="56">
-        <v>0</v>
+        <v>1.7937219730941704E-2</v>
       </c>
       <c r="I22" s="56">
-        <v>0</v>
+        <v>1.3452914798206279E-2</v>
       </c>
       <c r="J22" s="56">
-        <v>0</v>
+        <v>8.9686098654708519E-3</v>
       </c>
       <c r="K22" s="56">
-        <v>0</v>
+        <v>8.9686098654708519E-3</v>
       </c>
       <c r="L22" s="56">
-        <v>0</v>
+        <v>4.4843049327354259E-3</v>
       </c>
       <c r="M22" s="56">
-        <v>0</v>
+        <v>4.4843049327354259E-3</v>
       </c>
       <c r="N22" s="56">
-        <v>0</v>
+        <v>4.4843049327354259E-3</v>
       </c>
       <c r="O22" s="56">
         <v>0</v>
@@ -6787,43 +6787,43 @@
         <v>41</v>
       </c>
       <c r="B23" s="55">
-        <v>0.89090909090909087</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="C23" s="56">
-        <v>0.50303030303030305</v>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="D23" s="56">
-        <v>0.19393939393939394</v>
+        <v>0</v>
       </c>
       <c r="E23" s="56">
-        <v>9.0909090909090912E-2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="56">
-        <v>3.0303030303030304E-2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="56">
-        <v>2.4242424242424242E-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="56">
-        <v>2.4242424242424242E-2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="56">
-        <v>1.8181818181818181E-2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="56">
-        <v>1.2121212121212121E-2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="56">
-        <v>1.2121212121212121E-2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="56">
-        <v>6.0606060606060606E-3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="56">
-        <v>6.0606060606060606E-3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="56">
-        <v>6.0606060606060606E-3</v>
+        <v>0</v>
       </c>
       <c r="O23" s="56">
         <v>0</v>
@@ -6852,46 +6852,46 @@
         <v>118</v>
       </c>
       <c r="B24" s="55">
-        <v>0.91428571428571426</v>
+        <v>0.5</v>
       </c>
       <c r="C24" s="56">
-        <v>0.8</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="D24" s="56">
-        <v>0.74285714285714288</v>
+        <v>3.2110091743119268E-2</v>
       </c>
       <c r="E24" s="56">
-        <v>0.68571428571428572</v>
+        <v>2.7522935779816515E-2</v>
       </c>
       <c r="F24" s="56">
-        <v>0.31428571428571428</v>
+        <v>1.3761467889908258E-2</v>
       </c>
       <c r="G24" s="56">
-        <v>0.2</v>
+        <v>4.5871559633027525E-3</v>
       </c>
       <c r="H24" s="56">
-        <v>0.17142857142857143</v>
+        <v>4.5871559633027525E-3</v>
       </c>
       <c r="I24" s="56">
-        <v>5.7142857142857141E-2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="56">
-        <v>2.8571428571428571E-2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="56">
-        <v>2.8571428571428571E-2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="56">
-        <v>2.8571428571428571E-2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="56">
-        <v>2.8571428571428571E-2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="56">
-        <v>2.8571428571428571E-2</v>
+        <v>0</v>
       </c>
       <c r="O24" s="56">
-        <v>2.8571428571428571E-2</v>
+        <v>0</v>
       </c>
       <c r="P24" s="56">
         <v>0</v>
@@ -6917,46 +6917,46 @@
         <v>117</v>
       </c>
       <c r="B25" s="55">
-        <v>0.98648648648648651</v>
+        <v>1</v>
       </c>
       <c r="C25" s="56">
-        <v>0.52702702702702697</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="D25" s="56">
-        <v>0.16216216216216217</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="E25" s="56">
-        <v>2.7027027027027029E-2</v>
+        <v>0.85185185185185186</v>
       </c>
       <c r="F25" s="56">
-        <v>1.3513513513513514E-2</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="G25" s="56">
-        <v>1.3513513513513514E-2</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="H25" s="56">
-        <v>1.3513513513513514E-2</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="I25" s="56">
-        <v>1.3513513513513514E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J25" s="56">
-        <v>0</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="K25" s="56">
-        <v>0</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="L25" s="56">
-        <v>0</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="M25" s="56">
-        <v>0</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="N25" s="56">
-        <v>0</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="O25" s="56">
-        <v>0</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="P25" s="56">
         <v>0</v>
@@ -6982,25 +6982,25 @@
         <v>116</v>
       </c>
       <c r="B26" s="58">
-        <v>0.40752351097178685</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C26" s="59">
-        <v>0.11598746081504702</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="59">
-        <v>1.8808777429467086E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="E26" s="59">
-        <v>1.8808777429467086E-2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="59">
-        <v>9.4043887147335428E-3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="59">
-        <v>3.134796238244514E-3</v>
+        <v>0</v>
       </c>
       <c r="H26" s="59">
-        <v>3.134796238244514E-3</v>
+        <v>0</v>
       </c>
       <c r="I26" s="59">
         <v>0</v>
@@ -7172,8 +7172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B305B3B2-E098-F04C-83CE-B18CE5C01F35}">
   <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7271,10 +7271,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="52">
-        <v>0.86075949367088611</v>
+        <v>2.4615384615384615E-2</v>
       </c>
       <c r="C2" s="53">
-        <v>0.26582278481012656</v>
+        <v>1.2307692307692308E-2</v>
       </c>
       <c r="D2" s="53">
         <v>0</v>
@@ -7359,10 +7359,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="55">
-        <v>0.13043478260869565</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="C3" s="56">
-        <v>4.3478260869565216E-2</v>
+        <v>0.85</v>
       </c>
       <c r="D3" s="56">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>111</v>
       </c>
       <c r="B4" s="55">
-        <v>3.903903903903904E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="C4" s="56">
-        <v>2.1021021021021023E-2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="56">
         <v>0</v>
@@ -7535,10 +7535,10 @@
         <v>108</v>
       </c>
       <c r="B5" s="55">
-        <v>0.88888888888888895</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="C5" s="56">
-        <v>0.1111111111111111</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="D5" s="56">
         <v>0</v>
@@ -7623,10 +7623,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="55">
-        <v>1</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="C6" s="56">
-        <v>0.82258064516129037</v>
+        <v>0.26530612244897961</v>
       </c>
       <c r="D6" s="56">
         <v>0</v>
@@ -7714,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="56">
-        <v>0.89393939393939392</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="D7" s="56">
         <v>0</v>
@@ -7799,10 +7799,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="55">
-        <v>0.93333333333333335</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="C8" s="56">
-        <v>0.9</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="D8" s="56">
         <v>0</v>
@@ -7887,10 +7887,10 @@
         <v>39</v>
       </c>
       <c r="B9" s="55">
-        <v>0.61363636363636365</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="C9" s="56">
-        <v>0.11363636363636363</v>
+        <v>0.27350427350427353</v>
       </c>
       <c r="D9" s="56">
         <v>0</v>
@@ -7975,10 +7975,10 @@
         <v>114</v>
       </c>
       <c r="B10" s="55">
-        <v>7.0422535211267609E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="C10" s="56">
-        <v>2.464788732394366E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
       <c r="D10" s="56">
         <v>0</v>
@@ -8063,10 +8063,10 @@
         <v>113</v>
       </c>
       <c r="B11" s="55">
-        <v>1</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C11" s="56">
-        <v>0.60526315789473684</v>
+        <v>0</v>
       </c>
       <c r="D11" s="56">
         <v>0</v>
@@ -8151,10 +8151,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="55">
-        <v>0.65116279069767447</v>
+        <v>0.87755102040816324</v>
       </c>
       <c r="C12" s="56">
-        <v>0.30232558139534882</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D12" s="56">
         <v>0</v>
@@ -8239,10 +8239,10 @@
         <v>115</v>
       </c>
       <c r="B13" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="56">
         <v>0</v>
@@ -8327,10 +8327,10 @@
         <v>35</v>
       </c>
       <c r="B14" s="55">
-        <v>0.640625</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="C14" s="56">
-        <v>0.22916666666666666</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="D14" s="56">
         <v>0</v>
@@ -8415,10 +8415,10 @@
         <v>36</v>
       </c>
       <c r="B15" s="55">
-        <v>0.197265625</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="C15" s="56">
-        <v>0.10546875</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="D15" s="56">
         <v>0</v>
@@ -8503,10 +8503,10 @@
         <v>107</v>
       </c>
       <c r="B16" s="55">
-        <v>1.3937282229965157E-2</v>
+        <v>9.5419847328244278E-3</v>
       </c>
       <c r="C16" s="56">
-        <v>3.4843205574912892E-3</v>
+        <v>3.8167938931297708E-3</v>
       </c>
       <c r="D16" s="56">
         <v>0</v>
@@ -8591,10 +8591,10 @@
         <v>103</v>
       </c>
       <c r="B17" s="55">
-        <v>0</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="C17" s="56">
-        <v>0</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D17" s="56">
         <v>0</v>
@@ -8679,10 +8679,10 @@
         <v>104</v>
       </c>
       <c r="B18" s="55">
-        <v>1</v>
+        <v>6.6132264529058113E-2</v>
       </c>
       <c r="C18" s="56">
-        <v>1</v>
+        <v>3.406813627254509E-2</v>
       </c>
       <c r="D18" s="56">
         <v>0</v>
@@ -8767,10 +8767,10 @@
         <v>106</v>
       </c>
       <c r="B19" s="55">
-        <v>0.94444444444444442</v>
+        <v>0.95121951219512191</v>
       </c>
       <c r="C19" s="56">
-        <v>0.47222222222222221</v>
+        <v>0.34146341463414637</v>
       </c>
       <c r="D19" s="56">
         <v>0</v>
@@ -8855,10 +8855,10 @@
         <v>105</v>
       </c>
       <c r="B20" s="55">
-        <v>1.1111111111111112E-2</v>
+        <v>0.3576923076923077</v>
       </c>
       <c r="C20" s="56">
-        <v>0</v>
+        <v>0.17692307692307693</v>
       </c>
       <c r="D20" s="56">
         <v>0</v>
@@ -9031,10 +9031,10 @@
         <v>42</v>
       </c>
       <c r="B22" s="55">
-        <v>0</v>
+        <v>8.0717488789237665E-2</v>
       </c>
       <c r="C22" s="56">
-        <v>0</v>
+        <v>4.0358744394618833E-2</v>
       </c>
       <c r="D22" s="56">
         <v>0</v>
@@ -9119,10 +9119,10 @@
         <v>41</v>
       </c>
       <c r="B23" s="55">
-        <v>9.0909090909090912E-2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="56">
-        <v>4.8484848484848485E-2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="56">
         <v>0</v>
@@ -9207,10 +9207,10 @@
         <v>118</v>
       </c>
       <c r="B24" s="55">
-        <v>0.68571428571428572</v>
+        <v>2.7522935779816515E-2</v>
       </c>
       <c r="C24" s="56">
-        <v>0.4</v>
+        <v>1.834862385321101E-2</v>
       </c>
       <c r="D24" s="56">
         <v>0</v>
@@ -9295,10 +9295,10 @@
         <v>117</v>
       </c>
       <c r="B25" s="55">
-        <v>2.7027027027027029E-2</v>
+        <v>0.85185185185185186</v>
       </c>
       <c r="C25" s="56">
-        <v>1.3513513513513514E-2</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="D25" s="56">
         <v>0</v>
@@ -9383,10 +9383,10 @@
         <v>116</v>
       </c>
       <c r="B26" s="58">
-        <v>1.8808777429467086E-2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="59">
-        <v>1.2539184952978056E-2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="59">
         <v>0</v>
@@ -9584,6 +9584,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -9755,22 +9770,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9786,28 +9810,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>